--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Vietcom.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang3\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang3\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC08241A-E176-4071-B4C0-7BD32959DB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -43,12 +42,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="2">'TOP-1'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -289,16 +288,22 @@
     <t>Thay MCU và nạp FW module</t>
   </si>
   <si>
-    <t>Thay ic</t>
+    <t>Quang</t>
   </si>
   <si>
-    <t>Quang</t>
+    <t>MCU,NCFW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>Thay transistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -705,6 +710,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -723,31 +752,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,23 +851,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -895,23 +886,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,7 +1061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1123,39 +1097,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1188,57 +1162,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1263,22 +1237,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,7 +1278,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1335,7 +1309,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1364,7 +1338,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1367,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1422,7 +1396,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1425,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1454,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1511,7 +1485,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +1514,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1569,7 +1543,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1598,7 +1572,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3314,13 +3288,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3332,6 +3299,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3339,7 +3313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3375,39 +3349,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3440,57 +3414,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3515,22 +3489,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,7 +3530,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3587,7 +3561,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3616,7 +3590,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3645,7 +3619,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3674,7 +3648,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3703,7 +3677,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3732,7 +3706,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3763,7 +3737,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3792,7 +3766,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3821,7 +3795,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3850,7 +3824,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5566,6 +5540,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5577,13 +5558,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5591,7 +5565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5627,39 +5601,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5692,57 +5666,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5767,22 +5741,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,7 +5782,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5839,7 +5813,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5868,7 +5842,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5897,7 +5871,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5926,7 +5900,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5955,7 +5929,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5984,7 +5958,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6015,7 +5989,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6044,7 +6018,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6073,7 +6047,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6102,7 +6076,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7818,6 +7792,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7829,13 +7810,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7843,7 +7817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -7879,39 +7853,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -7944,57 +7918,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8019,22 +7993,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8060,7 +8034,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8091,7 +8065,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8120,7 +8094,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8149,7 +8123,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8178,7 +8152,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8207,7 +8181,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8236,7 +8210,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8267,7 +8241,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8296,7 +8270,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8325,7 +8299,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8354,7 +8328,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10070,6 +10044,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10081,13 +10062,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10095,7 +10069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -10131,39 +10105,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -10196,57 +10170,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -10271,22 +10245,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10312,7 +10286,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10343,7 +10317,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10372,7 +10346,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10401,7 +10375,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10430,7 +10404,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10459,7 +10433,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10488,7 +10462,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10519,7 +10493,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10548,7 +10522,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10577,7 +10551,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10606,7 +10580,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12322,6 +12296,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12333,13 +12314,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12347,11 +12321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="N1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="R6" sqref="B6:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12383,41 +12357,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -12450,57 +12424,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -12525,22 +12499,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12550,15 +12524,17 @@
       <c r="B6" s="50">
         <v>44991</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="50">
+        <v>44998</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="62">
         <v>868183034710496</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="31" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="51" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="51"/>
@@ -12582,15 +12558,17 @@
         <v>66</v>
       </c>
       <c r="P6" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="56"/>
+      <c r="R6" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="63"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12605,15 +12583,17 @@
       <c r="B7" s="50">
         <v>44991</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="50">
+        <v>44998</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="62">
         <v>868183033785259</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="51" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="51"/>
@@ -12637,15 +12617,17 @@
         <v>66</v>
       </c>
       <c r="P7" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="56"/>
+      <c r="R7" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="63"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12658,15 +12640,17 @@
       <c r="B8" s="50">
         <v>44991</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="50">
+        <v>44998</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="62">
         <v>861881051085554</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="31" t="s">
+      <c r="F8" s="80"/>
+      <c r="G8" s="51" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="51"/>
@@ -12690,15 +12674,17 @@
         <v>66</v>
       </c>
       <c r="P8" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="56"/>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="63"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12711,15 +12697,17 @@
       <c r="B9" s="50">
         <v>44991</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="50">
+        <v>44998</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="62">
         <v>868183034581657</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="31" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="51" t="s">
         <v>64</v>
       </c>
       <c r="H9" s="51"/>
@@ -12743,15 +12731,17 @@
         <v>66</v>
       </c>
       <c r="P9" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="56"/>
+      <c r="R9" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="63"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12764,15 +12754,17 @@
       <c r="B10" s="50">
         <v>44991</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="50">
+        <v>44998</v>
+      </c>
+      <c r="D10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="62">
         <v>862205051190611</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="80"/>
+      <c r="G10" s="51" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="51"/>
@@ -12788,23 +12780,25 @@
       <c r="L10" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="53"/>
+      <c r="O10" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="P10" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="2"/>
       <c r="S10" s="63"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12817,15 +12811,17 @@
       <c r="B11" s="50">
         <v>44991</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="50">
+        <v>44998</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="62">
         <v>867857039906792</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="31" t="s">
+      <c r="F11" s="80"/>
+      <c r="G11" s="51" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="64"/>
@@ -12841,23 +12837,25 @@
       <c r="L11" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="56" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="63"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12870,22 +12868,24 @@
       <c r="B12" s="50">
         <v>44991</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="50">
+        <v>44998</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="62">
         <v>868183038613548</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="80"/>
+      <c r="G12" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="53" t="s">
         <v>74</v>
       </c>
       <c r="K12" s="54" t="s">
@@ -12894,23 +12894,25 @@
       <c r="L12" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="53"/>
+      <c r="O12" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="33" t="s">
-        <v>79</v>
+      <c r="P12" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="Q12" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12941,7 +12943,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12970,7 +12972,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12999,7 +13001,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13028,7 +13030,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13178,7 +13180,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -13324,7 +13326,7 @@
       </c>
       <c r="V26" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="12"/>
     </row>
@@ -14729,6 +14731,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14740,13 +14749,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14754,7 +14756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -14790,39 +14792,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -14855,57 +14857,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -14930,22 +14932,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14971,7 +14973,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15002,7 +15004,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15031,7 +15033,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15060,7 +15062,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15089,7 +15091,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15118,7 +15120,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15147,7 +15149,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15178,7 +15180,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15207,7 +15209,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15236,7 +15238,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15265,7 +15267,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16981,6 +16983,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16992,13 +17001,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17006,7 +17008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -17042,39 +17044,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -17107,57 +17109,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -17182,22 +17184,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17223,7 +17225,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17254,7 +17256,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17283,7 +17285,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17312,7 +17314,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17341,7 +17343,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17370,7 +17372,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17399,7 +17401,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17430,7 +17432,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17459,7 +17461,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17488,7 +17490,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17517,7 +17519,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19233,6 +19235,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19244,13 +19253,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19258,7 +19260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -19294,39 +19296,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -19359,57 +19361,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -19434,22 +19436,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="78"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19475,7 +19477,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19506,7 +19508,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19535,7 +19537,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19564,7 +19566,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19593,7 +19595,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19622,7 +19624,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19651,7 +19653,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19682,7 +19684,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19711,7 +19713,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19740,7 +19742,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19769,7 +19771,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21000,13 +21002,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21018,6 +21013,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
